--- a/Ing_economica/parcial2/EXAMENPARCIAL 2 2D02023.xlsx
+++ b/Ing_economica/parcial2/EXAMENPARCIAL 2 2D02023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cris Pat\Desktop\U\Semestre_10\Ing_economica\parcial2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{823ECDAC-B908-4E25-9204-44E34AB88514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7344744B-6EF8-4B94-8E01-B1E92D191269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{8FD58997-C612-45E7-98C0-84F02322AAEF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{8FD58997-C612-45E7-98C0-84F02322AAEF}"/>
   </bookViews>
   <sheets>
     <sheet name="PROBLEMA1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="PROBLEMA3" sheetId="3" r:id="rId3"/>
     <sheet name="PROBLEMA4" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -140,9 +140,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;_ ;_-@_ "/>
-    <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
-    <numFmt numFmtId="171" formatCode="_-[$$-540A]* #,##0.00_ ;_-[$$-540A]* \-#,##0.00\ ;_-[$$-540A]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0_ ;_-[$$-409]* \-#,##0\ ;_-[$$-409]* &quot;-&quot;_ ;_-@_ "/>
+    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="166" formatCode="_-[$$-540A]* #,##0.00_ ;_-[$$-540A]* \-#,##0.00\ ;_-[$$-540A]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -221,7 +221,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -230,29 +230,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -908,8 +907,8 @@
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.3">
       <c r="D23" s="5"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C24">
@@ -946,7 +945,7 @@
         <v>-4800</v>
       </c>
       <c r="E26" s="8">
-        <f t="shared" ref="E26:E44" si="0">$F$20</f>
+        <f t="shared" ref="E26:E43" si="0">$F$20</f>
         <v>-3000</v>
       </c>
     </row>
@@ -955,7 +954,7 @@
         <v>3</v>
       </c>
       <c r="D27" s="8">
-        <f t="shared" ref="D27:D34" si="1">D26</f>
+        <f t="shared" ref="D27:D33" si="1">D26</f>
         <v>-4800</v>
       </c>
       <c r="E27" s="8">
@@ -1085,7 +1084,7 @@
         <v>13</v>
       </c>
       <c r="D37" s="8">
-        <f t="shared" ref="D37:D44" si="2">D36</f>
+        <f t="shared" ref="D37:D43" si="2">D36</f>
         <v>-4800</v>
       </c>
       <c r="E37" s="8">
@@ -1236,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB822A03-16DE-4B81-BCBA-CC108371F786}">
   <dimension ref="A6:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1297,8 +1296,8 @@
         <v>17</v>
       </c>
       <c r="D9" s="8">
-        <f>-120000/I7</f>
-        <v>-2231234.4787771343</v>
+        <f>-PMT(I7,5,,-120000)/I7</f>
+        <v>-400758.41399112338</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1306,9 +1305,9 @@
         <v>25</v>
       </c>
       <c r="C10" s="8"/>
-      <c r="E10" s="18">
+      <c r="E10" s="17">
         <f>D9+D8+C7</f>
-        <v>-3752477.2355397968</v>
+        <v>-1922001.1707537861</v>
       </c>
       <c r="G10" t="s">
         <v>18</v>
@@ -1336,7 +1335,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" s="11"/>
-      <c r="C16" s="13"/>
+      <c r="C16" s="8"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="11"/>
@@ -1381,7 +1380,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4363BC7B-8165-43BB-AD53-F3BC6D1003BF}">
   <dimension ref="C10:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
@@ -1493,11 +1492,11 @@
         <v>2</v>
       </c>
       <c r="D19" s="8">
-        <f t="shared" ref="D19:D29" si="0">$D$13</f>
+        <f t="shared" ref="D19:D28" si="0">$D$13</f>
         <v>-38000</v>
       </c>
       <c r="E19" s="8">
-        <f t="shared" ref="E19:E29" si="1">$E$13</f>
+        <f t="shared" ref="E19:E28" si="1">$E$13</f>
         <v>-25600</v>
       </c>
     </row>
@@ -1648,11 +1647,11 @@
       <c r="C31" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="19">
+      <c r="D31" s="18">
         <f>FV(J11,C29,,D30)</f>
         <v>1320328.9587476777</v>
       </c>
-      <c r="E31" s="20">
+      <c r="E31" s="19">
         <f>FV(J11,C29,,E30)</f>
         <v>994229.21492749441</v>
       </c>
@@ -1727,8 +1726,8 @@
       </c>
     </row>
     <row r="16" spans="5:11" x14ac:dyDescent="0.3">
-      <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="14"/>
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.3">
       <c r="E17" s="4" t="s">
@@ -1790,7 +1789,7 @@
         <f>-PMT($J$15,E21,E18,E20)+E19</f>
         <v>-57356.304995297251</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="15">
         <f>-PMT($J$15,F21,F18,F20)+F19</f>
         <v>-58703.927749713381</v>
       </c>
